--- a/CSC3510 S2021/Lectures/JS UdemTestingMocha1.xlsx
+++ b/CSC3510 S2021/Lectures/JS UdemTestingMocha1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\Lectures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2147761-4FE4-4C63-B2B3-01C2BD1088BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6BF6C525-4053-44CB-B6A0-CE57F2A19180}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Getting going" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Chai env vars" sheetId="7" r:id="rId7"/>
     <sheet name="std functions" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,15 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2675,6 +2677,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>408877</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>66398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="25469850"/>
+          <a:ext cx="5580952" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>580201</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>123436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="26917650"/>
+          <a:ext cx="6590476" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2254463" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="2876550"/>
+          <a:ext cx="2254463" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Recommended reading </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://www.chaijs.com/api/assert/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9850,27 +9988,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685253D4-592C-4B60-A5B2-D7D51097D2F2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="T143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9314314-F451-4002-B86C-53713D2012A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9878,14 +10024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCA211E-0831-4CCA-BC8B-6B197B421E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="T87" sqref="T87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9893,14 +10039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28493860-6B71-4BC4-8909-0F70D24FE748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9908,14 +10054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD9E654-0031-42D1-A0BB-5C3D93104CA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="T150" sqref="T150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9923,14 +10069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC887B-C316-421D-AC48-646E3B1CF302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B76" workbookViewId="0">
       <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9938,16 +10084,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37820AB7-BCCA-4E1D-921A-A4584D31F61D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T36"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B67" workbookViewId="0">
       <selection activeCell="P95" sqref="P95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T36" t="s">
         <v>0</v>
       </c>
@@ -9959,16 +10105,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B80B28-6C2E-423A-879A-0DAE939BCBAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="39" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
